--- a/Bestellliste_Schule_V2.0.xlsx
+++ b/Bestellliste_Schule_V2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23372102-4701-4FCC-B029-6470DAD97BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403A3158-A880-4FDB-BC2B-48BC6D06754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{653E7662-EE17-4F48-B458-2A550F63096F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{653E7662-EE17-4F48-B458-2A550F63096F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>Kyocera AVX RC-Car Teile</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Teil</t>
   </si>
@@ -93,6 +90,87 @@
   </si>
   <si>
     <t>Noctua NF-A4x20 5V PWM</t>
+  </si>
+  <si>
+    <t>Bestellliste</t>
+  </si>
+  <si>
+    <t>Versandkosten inkludiert</t>
+  </si>
+  <si>
+    <t>Gens Ace 4s Lipo</t>
+  </si>
+  <si>
+    <t>ISDT K1 Lipo Charger</t>
+  </si>
+  <si>
+    <t>Traxxas Dämpfer</t>
+  </si>
+  <si>
+    <t>Traxxas Motorritzel 11Z</t>
+  </si>
+  <si>
+    <t>TRAShop</t>
+  </si>
+  <si>
+    <t>Add Sensor, open vents, flat spot on shaft, 8D, 30mm shaft length</t>
+  </si>
+  <si>
+    <t>Traxxas Motorritzel 26Z</t>
+  </si>
+  <si>
+    <t>Traxxas Differential hinten</t>
+  </si>
+  <si>
+    <t>Traxxas Motorzahnrad 54Z</t>
+  </si>
+  <si>
+    <t>Traxxas Antriebswellen</t>
+  </si>
+  <si>
+    <t>Traxxas Zentraldifferential</t>
+  </si>
+  <si>
+    <t>Traxxas Cush Drive Dämpfer</t>
+  </si>
+  <si>
+    <t>GPMRacing Cush Drive Gehäuse</t>
+  </si>
+  <si>
+    <t>BambuLab PC Filament 1kg</t>
+  </si>
+  <si>
+    <t>BambuStore</t>
+  </si>
+  <si>
+    <t>BambuLab TPU95A Filament 1kg</t>
+  </si>
+  <si>
+    <t>BamubLab PLA Matte Filament Refill 1kg</t>
+  </si>
+  <si>
+    <t>DJI O3 Air Unit</t>
+  </si>
+  <si>
+    <t>DJIStore</t>
+  </si>
+  <si>
+    <t>Unbedingt nötig</t>
+  </si>
+  <si>
+    <t>Unbedingt nötig:</t>
+  </si>
+  <si>
+    <t>Coral Dual TPU Board</t>
+  </si>
+  <si>
+    <t>M.2E to B Adapter</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Makerfabs</t>
   </si>
 </sst>
 </file>
@@ -377,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -409,12 +487,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -724,77 +894,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190216A1-E49D-4261-B9C5-C63CD3DB8C33}">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="22"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -806,60 +982,85 @@
         <f t="shared" ref="G6:G14" si="0">F6*E6</f>
         <v>346.1</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="L6">
+        <f>G6*H6</f>
+        <v>346.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>11</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>297.8</v>
+        <v>235</v>
       </c>
       <c r="G7" s="1">
         <f>F7*E7</f>
-        <v>297.8</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="L7">
+        <f t="shared" ref="L7:L29" si="1">G7*H7</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G13" si="2">F8*E8</f>
+        <v>52</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ref="G8:G13" si="1">F8*E8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="10"/>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -868,19 +1069,26 @@
         <v>119.99</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.99</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="10"/>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>119.99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -889,134 +1097,627 @@
         <v>17.04</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.08</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="10"/>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>34.08</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>16.03</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>32.06</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>48.09</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="10"/>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>48.09</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>80.66</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>161.32</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="10"/>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>161.32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>98.72</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>98.72</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="I13" s="18"/>
+      <c r="J13" s="10"/>
+      <c r="L13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>74.95</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>149.9</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="10"/>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="E15">
         <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.95</v>
       </c>
       <c r="G15" s="1">
         <f>F15*E15</f>
+        <v>4.95</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="10"/>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G28" si="3">F16*E16</f>
+        <v>6.95</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="10"/>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>54.95</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>54.95</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22">
-        <f>F16*E16</f>
+      <c r="I17" s="18"/>
+      <c r="J17" s="10"/>
+      <c r="L17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="F18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="24">
-        <f>SUM(G6:G16)</f>
-        <v>830.0300000000002</v>
-      </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F27"/>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>18.95</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>18.95</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="10"/>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>169.95</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>169.95</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="10"/>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>68.95</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>68.95</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="10"/>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>18.95</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>18.95</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="10"/>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>3.95</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="10"/>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43.36</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="3"/>
+        <v>130.07999999999998</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="10"/>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>130.07999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>46.38</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="3"/>
+        <v>46.38</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="10"/>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>46.38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>113.94</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="10"/>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>56.97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>249</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="10"/>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>40.270000000000003</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="10"/>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>40.270000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="10"/>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="7"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22">
+        <f>F29*E29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
+        <v>0</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="10"/>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="7"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="7"/>
+      <c r="F31" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="24">
+        <f>SUM(G6:G29)</f>
+        <v>2202.4700000000007</v>
+      </c>
+      <c r="H31"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="7"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="7"/>
+      <c r="F33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="24">
+        <f>SUM(L6:L29)</f>
+        <v>1730.0300000000004</v>
+      </c>
+      <c r="H33"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G42"/>
+      <c r="H42"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H6:H29">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{21F33184-8ACF-4425-B7AF-6F0BA023238C}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{E9053963-F3C0-4872-94EC-2BCA305FE5A2}"/>
@@ -1024,8 +1725,25 @@
     <hyperlink ref="D9" r:id="rId4" xr:uid="{DD689835-3FEB-4E43-BC4B-13165EE88797}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{AC3D3047-3355-4882-93FD-C725A543095F}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{A8956021-ED80-4171-94D1-354CB43C474E}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{25343D83-D240-4FA6-BAFE-E809D0F419B7}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{948C619A-202A-4B31-A257-CD08ADB61364}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{89FE35DC-C604-4D3A-A507-A3A9EAA8AB83}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{2A9CF682-459D-40F0-9632-4C38CDD2E662}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{A0419201-CF0E-4B0E-AE05-983533E67984}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{E727615F-39C1-48F5-816A-D2E6E4E58F39}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{20C0DBBF-1B8C-4B6E-8F0B-9E1FFF7A62D0}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{185EF44A-5B9A-43B5-8FE0-1CB3C2A1C25B}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{84E051F9-2CB5-4E0D-8615-B92FD7F1A875}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{CBF24563-92D6-4220-83FF-C025A331E481}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{5CEDB7F7-057C-44C8-8E57-BA428E1F4945}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{6A289D10-82CE-44FD-9BAA-5A76BF51DF00}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{37CB498C-CFDE-4433-B88B-5E531D05F718}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{84228C3B-4B3B-4C73-852B-28793934A08F}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{C6460C26-EF39-4B8C-8858-739CA7D81712}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{B7C62C96-13E4-4B82-A964-BDE18DAE3F32}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{05B1AAC8-7280-4B77-9084-990578A23F5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Bestellliste_Schule_V2.0.xlsx
+++ b/Bestellliste_Schule_V2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403A3158-A880-4FDB-BC2B-48BC6D06754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B963289-C65A-4A33-9661-D6DA842F07CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{653E7662-EE17-4F48-B458-2A550F63096F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{653E7662-EE17-4F48-B458-2A550F63096F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Teil</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Flipsky Antisparkswitch</t>
   </si>
   <si>
-    <t>Preis bei ESC inkludiert</t>
-  </si>
-  <si>
     <t>Savöx SB-2290SG</t>
   </si>
   <si>
@@ -137,24 +134,12 @@
     <t>GPMRacing Cush Drive Gehäuse</t>
   </si>
   <si>
-    <t>BambuLab PC Filament 1kg</t>
-  </si>
-  <si>
     <t>BambuStore</t>
   </si>
   <si>
     <t>BambuLab TPU95A Filament 1kg</t>
   </si>
   <si>
-    <t>BamubLab PLA Matte Filament Refill 1kg</t>
-  </si>
-  <si>
-    <t>DJI O3 Air Unit</t>
-  </si>
-  <si>
-    <t>DJIStore</t>
-  </si>
-  <si>
     <t>Unbedingt nötig</t>
   </si>
   <si>
@@ -171,6 +156,27 @@
   </si>
   <si>
     <t>Makerfabs</t>
+  </si>
+  <si>
+    <t>Bestellt</t>
+  </si>
+  <si>
+    <t>BambuLab PET-CF Filament 1kg</t>
+  </si>
+  <si>
+    <t>Sunlu PLA Matte</t>
+  </si>
+  <si>
+    <t>Sunlu Store</t>
+  </si>
+  <si>
+    <t>3x PLA Matte Black, 3x PLA Matte Grey, over 6kg Bundle Deal verwenden!</t>
+  </si>
+  <si>
+    <t>Sunlu Filament Dryer</t>
+  </si>
+  <si>
+    <t>BambuLab PAHT-CF Filament 1kg</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -487,13 +493,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -501,66 +510,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -894,27 +843,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190216A1-E49D-4261-B9C5-C63CD3DB8C33}">
-  <dimension ref="B1:L42"/>
+  <dimension ref="B1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="59.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -923,23 +873,25 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="4"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="21"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
@@ -957,14 +909,17 @@
         <v>4</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="16" t="s">
         <v>8</v>
@@ -979,22 +934,23 @@
         <v>346.1</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G14" si="0">F6*E6</f>
+        <f t="shared" ref="G6:G15" si="0">F6*E6</f>
         <v>346.1</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="L6">
+      <c r="I6" s="33"/>
+      <c r="J6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="M6">
         <f>G6*H6</f>
         <v>346.1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="16" t="s">
         <v>9</v>
@@ -1015,16 +971,17 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="L7">
-        <f t="shared" ref="L7:L29" si="1">G7*H7</f>
+      <c r="I7" s="33"/>
+      <c r="J7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="M7">
+        <f t="shared" ref="M7:M30" si="1">G7*H7</f>
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="16" t="s">
         <v>11</v>
@@ -1039,28 +996,27 @@
         <v>52</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G13" si="2">F8*E8</f>
+        <f t="shared" ref="G8:G14" si="2">F8*E8</f>
         <v>52</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="L8">
+      <c r="I8" s="33"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="10"/>
+      <c r="M8">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1075,20 +1031,23 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="10"/>
-      <c r="L9">
+      <c r="I9" s="32">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="10"/>
+      <c r="M9">
         <f t="shared" si="1"/>
         <v>119.99</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1103,20 +1062,21 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="10"/>
-      <c r="L10">
+      <c r="I10" s="33"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="10"/>
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>34.08</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1131,20 +1091,21 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="10"/>
-      <c r="L11">
+      <c r="I11" s="33"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="10"/>
+      <c r="M11">
         <f t="shared" si="1"/>
         <v>48.09</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1159,20 +1120,21 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="10"/>
-      <c r="L12">
+      <c r="I12" s="33"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="10"/>
+      <c r="M12">
         <f t="shared" si="1"/>
         <v>161.32</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1187,525 +1149,576 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="10"/>
-      <c r="L13">
+      <c r="I13" s="33"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="10"/>
+      <c r="M13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>56.46</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>56.46</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="10"/>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>56.46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <v>74.95</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>149.9</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="10"/>
-      <c r="L14">
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="10"/>
+      <c r="M15">
         <f t="shared" si="1"/>
         <v>149.9</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="G15" s="1">
-        <f>F15*E15</f>
-        <v>4.95</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="10"/>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>6.95</v>
+        <v>4.95</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:G28" si="3">F16*E16</f>
-        <v>6.95</v>
+        <f>F16*E16</f>
+        <v>4.95</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="10"/>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I16" s="33"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="10"/>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17:G29" si="3">F17*E17</f>
+        <v>6.95</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="10"/>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <v>54.95</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="3"/>
         <v>54.95</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="10"/>
-      <c r="L17">
+      <c r="I18" s="33"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="10"/>
+      <c r="M18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>18.95</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="3"/>
         <v>18.95</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="10"/>
-      <c r="L18">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="10"/>
+      <c r="M19">
         <f t="shared" si="1"/>
         <v>18.95</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
         <v>169.95</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
         <f t="shared" si="3"/>
         <v>169.95</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="10"/>
-      <c r="L19">
+      <c r="I20" s="33"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="10"/>
+      <c r="M20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <v>68.95</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="3"/>
         <v>68.95</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="10"/>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>18.95</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="3"/>
-        <v>18.95</v>
-      </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="10"/>
-      <c r="L21">
+      <c r="I21" s="33"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="10"/>
+      <c r="M21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>3.95</v>
+        <v>18.95</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>3.95</v>
+        <v>18.95</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="10"/>
-      <c r="L22">
+      <c r="I22" s="33"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="10"/>
+      <c r="M22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>43.36</v>
+        <v>3.95</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>130.07999999999998</v>
+        <v>3.95</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="10"/>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>130.07999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="10"/>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>46.38</v>
+        <v>91.47</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>46.38</v>
+        <v>182.94</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="10"/>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>46.38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I24" s="33"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="10"/>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>182.94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>18.989999999999998</v>
+        <v>101.99</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>113.94</v>
+        <v>203.98</v>
       </c>
       <c r="H25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="10"/>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>56.97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="10"/>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>203.98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>249</v>
+        <v>46.38</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="3"/>
-        <v>249</v>
+        <v>46.38</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="10"/>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I26" s="33"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="10"/>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>46.38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1">
-        <v>40.270000000000003</v>
+        <v>14.27</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="3"/>
-        <v>40.270000000000003</v>
+        <v>85.62</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="10"/>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>40.270000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>42.81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>30</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="3"/>
+        <v>40.270000000000003</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="32">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="10"/>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>40.270000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
         <v>30</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="10"/>
-      <c r="L28">
-        <f t="shared" si="1"/>
+      <c r="G29" s="1">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="7"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21">
-        <v>1</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22">
-        <f>F29*E29</f>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="10"/>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22">
+        <f>F30*E30</f>
         <v>0</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H30" s="22">
         <v>0</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="10"/>
-      <c r="L29">
+      <c r="I30" s="21"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="10"/>
+      <c r="M30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="7"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
-      <c r="F31" s="23" t="s">
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="F32" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="24">
-        <f>SUM(G6:G29)</f>
-        <v>2202.4700000000007</v>
-      </c>
-      <c r="H31"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="7"/>
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="G32" s="24">
+        <f>SUM(G6:G30)</f>
+        <v>2238.4500000000007</v>
+      </c>
       <c r="H32"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
-      <c r="F33" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="24">
-        <f>SUM(L6:L29)</f>
-        <v>1730.0300000000004</v>
-      </c>
+      <c r="F33"/>
+      <c r="G33"/>
       <c r="H33"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="28"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="F34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="24">
+        <f>SUM(M6:M30)</f>
+        <v>1780.1700000000005</v>
+      </c>
+      <c r="H34"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="28"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F41"/>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G41"/>
       <c r="H41"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
     </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H6:H29">
+  <conditionalFormatting sqref="I9 I28 H6:H30">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1713,7 +1726,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0.5</formula>
     </cfRule>
@@ -1727,23 +1740,24 @@
     <hyperlink ref="D11" r:id="rId6" xr:uid="{A8956021-ED80-4171-94D1-354CB43C474E}"/>
     <hyperlink ref="D12" r:id="rId7" xr:uid="{25343D83-D240-4FA6-BAFE-E809D0F419B7}"/>
     <hyperlink ref="D13" r:id="rId8" xr:uid="{948C619A-202A-4B31-A257-CD08ADB61364}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{89FE35DC-C604-4D3A-A507-A3A9EAA8AB83}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{2A9CF682-459D-40F0-9632-4C38CDD2E662}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{A0419201-CF0E-4B0E-AE05-983533E67984}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{E727615F-39C1-48F5-816A-D2E6E4E58F39}"/>
-    <hyperlink ref="D18" r:id="rId13" xr:uid="{20C0DBBF-1B8C-4B6E-8F0B-9E1FFF7A62D0}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{185EF44A-5B9A-43B5-8FE0-1CB3C2A1C25B}"/>
-    <hyperlink ref="D20" r:id="rId15" xr:uid="{84E051F9-2CB5-4E0D-8615-B92FD7F1A875}"/>
-    <hyperlink ref="D21" r:id="rId16" xr:uid="{CBF24563-92D6-4220-83FF-C025A331E481}"/>
-    <hyperlink ref="D22" r:id="rId17" xr:uid="{5CEDB7F7-057C-44C8-8E57-BA428E1F4945}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{6A289D10-82CE-44FD-9BAA-5A76BF51DF00}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{37CB498C-CFDE-4433-B88B-5E531D05F718}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{84228C3B-4B3B-4C73-852B-28793934A08F}"/>
-    <hyperlink ref="D26" r:id="rId21" xr:uid="{C6460C26-EF39-4B8C-8858-739CA7D81712}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{B7C62C96-13E4-4B82-A964-BDE18DAE3F32}"/>
-    <hyperlink ref="D28" r:id="rId23" xr:uid="{05B1AAC8-7280-4B77-9084-990578A23F5F}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{89FE35DC-C604-4D3A-A507-A3A9EAA8AB83}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{2A9CF682-459D-40F0-9632-4C38CDD2E662}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{A0419201-CF0E-4B0E-AE05-983533E67984}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{E727615F-39C1-48F5-816A-D2E6E4E58F39}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{20C0DBBF-1B8C-4B6E-8F0B-9E1FFF7A62D0}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{185EF44A-5B9A-43B5-8FE0-1CB3C2A1C25B}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{84E051F9-2CB5-4E0D-8615-B92FD7F1A875}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{CBF24563-92D6-4220-83FF-C025A331E481}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{5CEDB7F7-057C-44C8-8E57-BA428E1F4945}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{6A289D10-82CE-44FD-9BAA-5A76BF51DF00}"/>
+    <hyperlink ref="D26" r:id="rId19" xr:uid="{37CB498C-CFDE-4433-B88B-5E531D05F718}"/>
+    <hyperlink ref="D27" r:id="rId20" xr:uid="{84228C3B-4B3B-4C73-852B-28793934A08F}"/>
+    <hyperlink ref="D28" r:id="rId21" xr:uid="{B7C62C96-13E4-4B82-A964-BDE18DAE3F32}"/>
+    <hyperlink ref="D29" r:id="rId22" xr:uid="{05B1AAC8-7280-4B77-9084-990578A23F5F}"/>
+    <hyperlink ref="D14" r:id="rId23" xr:uid="{1477DFCA-CF1E-4891-8864-08AB239035E9}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{7714BCCA-A237-49B9-9C95-5E3A40B9C02E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>